--- a/artfynd/A 27569-2022.xlsx
+++ b/artfynd/A 27569-2022.xlsx
@@ -809,7 +809,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56495838</v>
+        <v>56495835</v>
       </c>
       <c r="B3" t="n">
         <v>78596</v>
@@ -855,7 +855,7 @@
         <v>7092587.435233323</v>
       </c>
       <c r="S3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>1 substratenheter # Grov sälglåga</t>
+          <t>1 substratenheter # Rönn</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -938,7 +938,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>56495837</v>
+        <v>56495834</v>
       </c>
       <c r="B4" t="n">
         <v>78570</v>
@@ -984,7 +984,7 @@
         <v>7092587.435233323</v>
       </c>
       <c r="S4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>1 substratenheter # Grov sälglåga</t>
+          <t>1 substratenheter # Rönn</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
